--- a/data/income_statement/2digits/size/69_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/69_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>69-Legal and accounting activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>69-Legal and accounting activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,293 +841,333 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>555627.0605799999</v>
+        <v>527340.4524900001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>593989.71049</v>
+        <v>554083.4498600001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>639624.70793</v>
+        <v>615253.5698299999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>691183.43956</v>
+        <v>671883.45485</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>731615.24474</v>
+        <v>740161.73831</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>840289.2289199999</v>
+        <v>837807.13011</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>940614.78604</v>
+        <v>943509.08928</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1084713.83127</v>
+        <v>1069389.84891</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1169855.126</v>
+        <v>1125218.72857</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1067744.18904</v>
+        <v>1005819.39602</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1273914.44522</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1253245.62365</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1439454.954</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>506001.46209</v>
+        <v>480150.40974</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>545282.7914</v>
+        <v>509831.77974</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>567429.35098</v>
+        <v>548487.70045</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>620560.46073</v>
+        <v>603718.6677100001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>651077.1341899999</v>
+        <v>655827.58157</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>764337.7088199999</v>
+        <v>763692.31233</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>884695.34444</v>
+        <v>882304.83829</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1025521.67605</v>
+        <v>1009645.36624</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1084126.14338</v>
+        <v>1038320.39467</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>938710.57861</v>
+        <v>879318.71439</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1165106.26148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1147318.17191</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1330344.464</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>41139.11849</v>
+        <v>40534.65643</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>40614.66398999999</v>
+        <v>38992.21913</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>62634.58736</v>
+        <v>60191.43336</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>60745.7473</v>
+        <v>60420.08369</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>68713.36492000001</v>
+        <v>72052.64497999998</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>62604.92722</v>
+        <v>61854.08103</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>41054.91691</v>
+        <v>46370.73701999999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>38348.96115</v>
+        <v>40323.66024</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>58076.96088</v>
+        <v>62003.68004</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>95934.09250999999</v>
+        <v>95929.96756</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>64759.48873</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>62493.02540999999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>70250.74400000001</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>8486.48</v>
+        <v>6655.38632</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>8092.255099999999</v>
+        <v>5259.45099</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>9560.76959</v>
+        <v>6574.436019999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>9877.231529999999</v>
+        <v>7744.70345</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>11824.74563</v>
+        <v>12281.51176</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>13346.59288</v>
+        <v>12260.73675</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>14864.52469</v>
+        <v>14833.51397</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>20843.19407</v>
+        <v>19420.82243</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>27652.02174</v>
+        <v>24894.65386</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>33099.51792</v>
+        <v>30570.71407</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>44048.69501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>43434.42632999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>38859.746</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>5270.7355</v>
+        <v>4771.878640000001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>3904.85415</v>
+        <v>3632.42676</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>4938.80884</v>
+        <v>6419.79175</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>5187.773740000001</v>
+        <v>5117.496450000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>5059.58216</v>
+        <v>5058.987539999999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>7323.75284</v>
+        <v>7072.47084</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>12894.00126</v>
+        <v>12821.21769</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>7333.49759</v>
+        <v>7164.94475</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>9626.546030000001</v>
+        <v>9016.877699999999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>10776.40028</v>
+        <v>10415.02927</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>14184.84077</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>14591.94414</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>22074.531</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>3212.07882</v>
+        <v>2737.55004</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2397.47749</v>
+        <v>2181.14276</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>3079.65554</v>
+        <v>4765.781279999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>2465.51408</v>
+        <v>2413.53712</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>2497.30102</v>
+        <v>2450.20793</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>4359.74841</v>
+        <v>4146.00636</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>8909.54457</v>
+        <v>8937.52269</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>2674.29321</v>
+        <v>2897.06479</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>4749.37207</v>
+        <v>4301.066360000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>4680.36204</v>
+        <v>4641.429279999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>5359.5583</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>6302.76516</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>13846.025</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1809.11736</v>
+        <v>1794.63188</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1403.47284</v>
+        <v>1386.95229</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1818.35589</v>
+        <v>1613.21306</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>2592.55194</v>
+        <v>2574.25161</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2309.72492</v>
+        <v>2355.12508</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2378.85983</v>
+        <v>2385.5757</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3172.55117</v>
+        <v>3123.69601</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>3562.51786</v>
+        <v>3583.26973</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>4168.72363</v>
+        <v>4098.88819</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>5059.355550000001</v>
+        <v>4917.11591</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>6526.32829</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>6242.96167</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>6850.676</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>249.53932</v>
+        <v>239.69672</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>103.90382</v>
+        <v>64.33171</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>40.79741</v>
@@ -1235,352 +1176,397 @@
         <v>129.70772</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>252.55622</v>
+        <v>253.65453</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>585.1446</v>
+        <v>540.88878</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>811.90552</v>
+        <v>759.9989899999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1096.68652</v>
+        <v>684.61023</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>708.45033</v>
+        <v>616.9231499999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1036.68269</v>
+        <v>856.4840800000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>2298.95418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2046.21731</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1377.83</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>550356.3250800001</v>
+        <v>522568.57385</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>590084.8563400001</v>
+        <v>550451.0231</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>634685.8990900001</v>
+        <v>608833.77808</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>685995.66582</v>
+        <v>666765.9584</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>726555.6625799999</v>
+        <v>735102.7507699999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>832965.4760799999</v>
+        <v>830734.6592699999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>927720.78478</v>
+        <v>930687.8715899999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1077380.33368</v>
+        <v>1062224.90416</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1160228.57997</v>
+        <v>1116201.85087</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1056967.78876</v>
+        <v>995404.36675</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1259729.60445</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1238653.67951</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1417380.423</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>317302.24398</v>
+        <v>302369.38312</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>338663.43923</v>
+        <v>320417.54245</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>367871.3653100001</v>
+        <v>359259.60623</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>386006.93422</v>
+        <v>371989.91904</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>407782.95726</v>
+        <v>411044.82111</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>495355.50849</v>
+        <v>492315.2697</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>532188.72188</v>
+        <v>535802.65732</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>672326.68918</v>
+        <v>665925.69538</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>683153.1432899999</v>
+        <v>657014.9567100001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>655207.20915</v>
+        <v>626145.3515099999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>780594.3850499999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>778776.2618699999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>868712.402</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>5929.31921</v>
+        <v>5491.364519999999</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>8899.98517</v>
+        <v>8499.15004</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>11253.08428</v>
+        <v>11150.63907</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>6287.98796</v>
+        <v>6447.60177</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>4056.70871</v>
+        <v>8334.677009999999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>388.74454</v>
+        <v>4997.70679</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1624.27594</v>
+        <v>1704.09876</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>4718.469980000001</v>
+        <v>4671.43548</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>5066.00198</v>
+        <v>4890.48417</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>3783.12935</v>
+        <v>2533.63763</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>6185.976650000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>6512.49617</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>13570.01</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>27040.91693</v>
+        <v>25557.32533</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>52215.23405</v>
+        <v>54292.47428</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>79409.51957999999</v>
+        <v>80952.95040999999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>65450.76326000001</v>
+        <v>65919.99182</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>22626.77807</v>
+        <v>25165.97413</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>53178.51615</v>
+        <v>50440.34653</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>39645.49507</v>
+        <v>39773.48096</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>122593.28949</v>
+        <v>122673.33072</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>47103.21118999999</v>
+        <v>45815.24707</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4358.272609999999</v>
+        <v>817.68664</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>11035.36544</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>24195.58817</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>24211.266</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>283322.40595</v>
+        <v>270424.55527</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>277109.92963</v>
+        <v>257264.73959</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>277148.25277</v>
+        <v>267135.90729</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>313719.58819</v>
+        <v>298401.14546</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>379025.54115</v>
+        <v>375811.40876</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>441116.10409</v>
+        <v>436017.76093</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>488131.96552</v>
+        <v>491462.2719</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>543957.58375</v>
+        <v>537753.09118</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>629086.71176</v>
+        <v>604188.4549</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>645222.26831</v>
+        <v>620354.51665</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>760620.1066800001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>743838.08</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>827078.067</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1009.60189</v>
+        <v>896.138</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>438.29038</v>
+        <v>361.17854</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>60.50868000000001</v>
+        <v>20.10946</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>548.5948099999999</v>
+        <v>1221.17999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>2073.92933</v>
+        <v>1732.76121</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>672.1437099999999</v>
+        <v>859.4554499999999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>2786.98535</v>
+        <v>2862.8057</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1057.34596</v>
+        <v>827.838</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>1897.21836</v>
+        <v>2120.77057</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1843.53888</v>
+        <v>2439.51059</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>2752.93628</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4230.09753</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>3853.059</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>233054.0811</v>
+        <v>220199.19073</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>251421.41711</v>
+        <v>230033.48065</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>266814.5337800001</v>
+        <v>249574.17185</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>299988.7316</v>
+        <v>294776.03936</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>318772.70532</v>
+        <v>324057.92966</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>337609.96759</v>
+        <v>338419.38957</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>395532.0629</v>
+        <v>394885.2142700001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>405053.6445</v>
+        <v>396299.20878</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>477075.43668</v>
+        <v>459186.89416</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>401760.57961</v>
+        <v>369259.01524</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>479135.2194000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>459877.41764</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>548668.0209999999</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>129750.85919</v>
+        <v>126326.49475</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>145505.93093</v>
+        <v>132972.76441</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>162569.27391</v>
+        <v>149256.4476</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>171356.64351</v>
+        <v>166406.92423</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>168841.60398</v>
+        <v>170575.40101</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>183500.62561</v>
+        <v>178136.54087</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>206373.33707</v>
+        <v>205974.91233</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>228544.89308</v>
+        <v>215640.50205</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>266608.91317</v>
+        <v>244771.40771</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>212229.74261</v>
+        <v>187309.3632</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>260435.52811</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>248583.05799</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>270366.884</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>87.01718</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>331.0238</v>
+        <v>210.26226</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>188.14979</v>
+        <v>0</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>390.1588</v>
@@ -1589,13 +1575,13 @@
         <v>290.3167800000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>409.82036</v>
+        <v>337.4872800000001</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>448.03095</v>
+        <v>291.83655</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>858.5884</v>
+        <v>821.89837</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>332.30645</v>
@@ -1606,221 +1592,251 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>5735.461730000001</v>
+        <v>5505.72414</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>5040.28809</v>
+        <v>4827.74063</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>8488.177699999998</v>
+        <v>7141.93903</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>7883.32422</v>
+        <v>7298.69175</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>5340.162189999999</v>
+        <v>4855.37324</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>6448.03284</v>
+        <v>6236.65149</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>11076.32465</v>
+        <v>12018.7957</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>10243.78554</v>
+        <v>9597.65352</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>11290.93421</v>
+        <v>11966.7107</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>5767.91869</v>
+        <v>5574.424859999999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>17091.38814</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>16184.78829</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>12667.23</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>123928.38028</v>
+        <v>120733.75343</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>140134.61904</v>
+        <v>127934.76152</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>153892.94642</v>
+        <v>142114.50857</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>163083.16049</v>
+        <v>158718.07368</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>163211.12501</v>
+        <v>165429.71099</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>176642.77241</v>
+        <v>171562.4021</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>194848.98147</v>
+        <v>193664.28008</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>217442.51914</v>
+        <v>205220.95016</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>254985.67251</v>
+        <v>232472.39056</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>206461.82392</v>
+        <v>181734.93834</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>243344.13997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>232398.2697</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>257699.654</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>103303.22191</v>
+        <v>93872.69597999999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>105915.48618</v>
+        <v>97060.71623999999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>104245.25987</v>
+        <v>100317.72425</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>128632.08809</v>
+        <v>128369.11513</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>149931.10134</v>
+        <v>153482.52865</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>154109.34198</v>
+        <v>160282.8487</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>189158.72583</v>
+        <v>188910.30194</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>176508.75142</v>
+        <v>180658.70673</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>210466.52351</v>
+        <v>214415.48645</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>189530.837</v>
+        <v>181949.65204</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>218699.69129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>211294.35965</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>278301.137</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>19580.66959</v>
+        <v>33377.28532</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>19807.07389</v>
+        <v>18993.85622</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>23306.16732</v>
+        <v>24988.59947</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>15741.40745</v>
+        <v>15060.383</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>25040.48331</v>
+        <v>31793.38674</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>24998.89615</v>
+        <v>21805.67487</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>32357.10699</v>
+        <v>34268.83667</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>36424.36173</v>
+        <v>36736.12318</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>42953.94641</v>
+        <v>40129.76492</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>77035.87314</v>
+        <v>60914.32163000001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>65357.53381999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>59401.528</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>82471.955</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>414.7608</v>
+        <v>422.61834</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>540.69731</v>
+        <v>532.87383</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>505.26263</v>
+        <v>2719.12384</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>335.29928</v>
+        <v>150.57864</v>
       </c>
       <c r="G26" s="48" t="n">
+        <v>0.009699999999999999</v>
+      </c>
+      <c r="H26" s="48" t="n">
+        <v>0.01228</v>
+      </c>
+      <c r="I26" s="48" t="n">
+        <v>7.2599</v>
+      </c>
+      <c r="J26" s="48" t="n">
+        <v>925.8033300000001</v>
+      </c>
+      <c r="K26" s="48" t="n">
+        <v>340.14985</v>
+      </c>
+      <c r="L26" s="48" t="n">
+        <v>367.74805</v>
+      </c>
+      <c r="M26" s="48" t="n">
+        <v>806.5047</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>850.6849999999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="n"/>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
+      </c>
+      <c r="C27" s="48" t="n">
+        <v>202.44916</v>
+      </c>
+      <c r="D27" s="48" t="n">
+        <v>91.06949</v>
+      </c>
+      <c r="E27" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="H26" s="48" t="n">
-        <v>17.9793</v>
-      </c>
-      <c r="I26" s="48" t="n">
-        <v>170.72062</v>
-      </c>
-      <c r="J26" s="48" t="n">
-        <v>1565.94211</v>
-      </c>
-      <c r="K26" s="48" t="n">
-        <v>343.59462</v>
-      </c>
-      <c r="L26" s="48" t="n">
-        <v>2734.10424</v>
-      </c>
-      <c r="M26" s="48" t="n">
-        <v>1720.97808</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="48" t="n">
-        <v>1312.58286</v>
-      </c>
-      <c r="D27" s="48" t="n">
-        <v>485.35334</v>
-      </c>
-      <c r="E27" s="48" t="n">
-        <v>27.49125</v>
-      </c>
       <c r="F27" s="48" t="n">
-        <v>772.44339</v>
+        <v>301.15848</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>490.89225</v>
+        <v>0.29894</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>0</v>
@@ -1832,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>13.78225</v>
+        <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>0</v>
@@ -1840,74 +1856,84 @@
       <c r="M27" s="48" t="n">
         <v>2599.57658</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>4230.97142</v>
+        <v>6797.58861</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>3604.34394</v>
+        <v>4444.300190000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>3722.94658</v>
+        <v>4594.439479999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>5311.41783</v>
+        <v>5418.769929999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>4361.71403</v>
+        <v>4600.98419</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>5419.17918</v>
+        <v>5255.4746</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>6658.49399</v>
+        <v>5663.54232</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>7215.72349</v>
+        <v>6442.563399999999</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>9068.654930000001</v>
+        <v>6979.36145</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>10830.45939</v>
+        <v>6596.92662</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>14349.55122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>10100.34405</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>10061.673</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>15.63655</v>
+        <v>635.33216</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>3.17508</v>
+        <v>586.3985399999999</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>580.15679</v>
+        <v>332.17206</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>32.18662999999999</v>
+        <v>30.74746</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>3.00415</v>
+        <v>4.51544</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>0.8305900000000001</v>
+        <v>0.7813099999999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>89.14223999999999</v>
+        <v>85.71257999999999</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>74.67470999999999</v>
+        <v>75.36701000000001</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>101.92201</v>
@@ -1918,134 +1944,154 @@
       <c r="M29" s="48" t="n">
         <v>3856.32078</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>1446.324</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>495.80437</v>
+        <v>471.12324</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1037.15566</v>
+        <v>888.3658899999999</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>441.69632</v>
+        <v>152.05723</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>863.78048</v>
+        <v>771.8235199999999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1259.03372</v>
+        <v>1375.1249</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1680.3132</v>
+        <v>1610.00545</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1432.76606</v>
+        <v>1310.69273</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1319.88354</v>
+        <v>1320.218</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>658.47616</v>
+        <v>560.05516</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>1021.61666</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>2400.43691</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1634.18396</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1451.088</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>630.88558</v>
+        <v>768.2861799999999</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>3201.98956</v>
+        <v>873.2529400000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>870.88049</v>
+        <v>836.04215</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1412.33663</v>
+        <v>1048.06626</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>795.8462900000001</v>
+        <v>381.399</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1395.98185</v>
+        <v>729.78529</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>850.56839</v>
+        <v>907.46001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1101.47313</v>
+        <v>1104.95336</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1581.65744</v>
+        <v>1292.9523</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1197.11376</v>
+        <v>1185.21741</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>2477.75826</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1615.95482</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>2217.372</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>7660.178890000001</v>
+        <v>8539.500890000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>5769.178730000001</v>
+        <v>5221.54121</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>10050.03222</v>
+        <v>8919.222159999999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>3575.16852</v>
+        <v>3596.90607</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>12312.30232</v>
+        <v>17834.45619</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>9469.458259999999</v>
+        <v>7345.14288</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>14040.61507</v>
+        <v>16539.62636</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>14706.47398</v>
+        <v>14393.22082</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>17306.54842</v>
+        <v>15613.9642</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>43621.66843</v>
+        <v>36443.58954</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>20351.75558</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>18058.55393</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>46099.026</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>71.20780999999999</v>
+        <v>29.96428</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>67.83046</v>
+        <v>46.77661</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>73.11134</v>
@@ -2054,7 +2100,7 @@
         <v>122.85028</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>991.58889</v>
+        <v>985.93181</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>97.71494</v>
@@ -2069,19 +2115,24 @@
         <v>78.31225000000001</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>239.78428</v>
+        <v>123.93224</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>155.55528</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>11.62401</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>32.939</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>18.91089</v>
+        <v>8.91089</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>20.49464</v>
@@ -2102,10 +2153,10 @@
         <v>24.72902</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>0</v>
+        <v>934.5893599999999</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>0</v>
+        <v>1110.64567</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>0</v>
@@ -2113,251 +2164,286 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>4729.73042</v>
+        <v>15501.51157</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>5076.85517</v>
+        <v>6288.78288</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>7034.5897</v>
+        <v>7362.43121</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>3274.57532</v>
+        <v>3578.13327</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>4826.10166</v>
+        <v>6610.66657</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>6917.43883</v>
+        <v>6766.75812</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>9002.21358</v>
+        <v>9641.95573</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>10332.72892</v>
+        <v>11431.94605</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>13800.99833</v>
+        <v>14052.40203</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>17321.26755</v>
+        <v>15105.43228</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>17445.60113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>20718.46517</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>20312.848</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>11877.99844</v>
+        <v>11620.16909</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>10688.4698</v>
+        <v>9374.3289</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>9279.95556</v>
+        <v>7643.38147</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>9422.81998</v>
+        <v>9303.627899999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>13584.72421</v>
+        <v>22593.36266</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>15630.98833</v>
+        <v>148076.25162</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>15967.11911</v>
+        <v>19446.24562</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>16170.44616</v>
+        <v>18974.14468</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>17230.9895</v>
+        <v>17948.33836</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>42430.62919</v>
+        <v>40376.59854</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>25240.53009</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>22983.52764</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>41884.307</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>111.40961</v>
+        <v>167.75664</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>50.8797</v>
+        <v>302.33023</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>142.90788</v>
+        <v>138.19761</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>148.84023</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>382.46711</v>
+        <v>382.46186</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>172.96949</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>395.32152</v>
+        <v>399.08408</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>131.65395</v>
+        <v>120.73181</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>169.13055</v>
+        <v>131.80894</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>206.94121</v>
+        <v>206.71176</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>204.25556</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>178.96495</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>773.468</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>3363.78552</v>
+        <v>2843.87436</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>3840.68783</v>
+        <v>2878.85207</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1697.28628</v>
+        <v>1672.13978</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>3382.29457</v>
+        <v>3182.58221</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>4394.893550000001</v>
+        <v>4271.14587</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>3542.28938</v>
+        <v>3156.6818</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>4451.50827</v>
+        <v>3923.46088</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>6827.53469</v>
+        <v>6569.71344</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>5176.014</v>
+        <v>3982.66539</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>4775.097049999999</v>
+        <v>4084.617119999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>8693.27673</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>6133.23998</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>4934.228</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>38.46694</v>
+        <v>72.53394999999999</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>67.28308</v>
+        <v>121.98031</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>90.20026</v>
+        <v>197.30894</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>102.15394</v>
+        <v>97.35954</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>205.22373</v>
+        <v>195.48184</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>2721.91985</v>
+        <v>135541.21753</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>7.884009999999999</v>
+        <v>5.476649999999999</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>170.89915</v>
+        <v>162.21411</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>17.00685</v>
+        <v>14.22375</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>288.2219</v>
+        <v>457.87077</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>470.14218</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>372.68298</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>1768.395</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>7660.76564</v>
+        <v>7768.12233</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>5657.61461</v>
+        <v>4893.06217</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>6138.602100000001</v>
+        <v>4774.862480000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>5361.56812</v>
+        <v>5490.69732</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>6611.11668</v>
+        <v>13830.78051</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>8288.04675</v>
+        <v>7103.8902</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>9338.332460000001</v>
+        <v>10871.88091</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>7003.064240000001</v>
+        <v>9490.37041</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>9875.559019999999</v>
+        <v>11203.20461</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>33964.9238</v>
+        <v>32349.38772999999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>13323.2876</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>12819.49018</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>25005.485</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>88.02014</v>
+        <v>46.77661</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>134.9084</v>
+        <v>73.11134</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>122.12731</v>
@@ -2381,16 +2467,21 @@
         <v>108.43502</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>194.08698</v>
+        <v>83.63236999999999</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>144.34191</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>7.346439999999999</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>35.081</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,380 +2516,430 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>615.5505899999999</v>
+        <v>721.1052</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>905.9522300000001</v>
+        <v>1073.84883</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1088.83173</v>
+        <v>738.74535</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>343.45302</v>
+        <v>299.6385</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>810.34339</v>
+        <v>2732.81283</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>843.94953</v>
+        <v>2039.67927</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1740.187</v>
+        <v>4212.45725</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1978.50443</v>
+        <v>2572.32521</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1884.84406</v>
+        <v>2508.00065</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>3001.35825</v>
+        <v>3194.37879</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>2405.226110000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>3471.80311</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>9367.65</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>6716.91767</v>
+        <v>8368.851629999999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>5411.769689999999</v>
+        <v>5071.809329999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>5869.893520000001</v>
+        <v>4850.02287</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>8108.85513</v>
+        <v>7490.59689</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>6385.04153</v>
+        <v>11470.35937</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>6590.210180000001</v>
+        <v>12047.87116</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>8457.55803</v>
+        <v>9041.108789999998</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>10553.97451</v>
+        <v>9522.416439999999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>14066.08433</v>
+        <v>11579.42927</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>17294.25118</v>
+        <v>12577.02776</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>18111.25499</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>15801.86061</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>14592.731</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>6403.424389999999</v>
+        <v>8027.208720000001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>5152.933849999999</v>
+        <v>4356.99894</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>5498.67502</v>
+        <v>4564.52079</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>7710.58908</v>
+        <v>7175.08943</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>6186.75719</v>
+        <v>10098.56138</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>6453.91154</v>
+        <v>11924.23142</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>8181.73451</v>
+        <v>8770.36757</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>10324.24228</v>
+        <v>9362.87134</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>13499.57299</v>
+        <v>11338.64164</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>17185.64822</v>
+        <v>12531.82632</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>16669.00395</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>15752.61031</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>14314.443</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>313.49328</v>
+        <v>341.64291</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>258.83584</v>
+        <v>714.81039</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>371.2185</v>
+        <v>285.50208</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>398.26605</v>
+        <v>315.50746</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>198.28434</v>
+        <v>1371.79799</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>136.29864</v>
+        <v>123.63974</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>275.82352</v>
+        <v>270.7412200000001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>229.73223</v>
+        <v>159.5451</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>566.51134</v>
+        <v>240.78763</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>108.60296</v>
+        <v>45.20144000000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1442.25104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>49.2503</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>278.288</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>104288.97539</v>
+        <v>107260.96058</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>109622.32058</v>
+        <v>101608.43423</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>112401.57811</v>
+        <v>112812.91938</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>126841.82043</v>
+        <v>126635.27334</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>155001.81891</v>
+        <v>151212.19336</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>156887.03962</v>
+        <v>21964.40079000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>197091.15568</v>
+        <v>194691.7842</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>186208.69248</v>
+        <v>188898.26879</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>222123.39609</v>
+        <v>225017.48374</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>206841.82977</v>
+        <v>189910.34737</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>240705.44003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>231910.4994</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>304296.054</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>5268.92157</v>
+        <v>10414.05688</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>7128.30284</v>
+        <v>5957.79825</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>7546.522099999999</v>
+        <v>6374.94363</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>8615.222949999999</v>
+        <v>9751.640069999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>10840.43936</v>
+        <v>11369.12612</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>10713.72278</v>
+        <v>10169.55483</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>16444.39742</v>
+        <v>16219.36023</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>11903.10631</v>
+        <v>10778.08528</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>13710.19206</v>
+        <v>10340.70907</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>12767.16089</v>
+        <v>10919.33783</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>15797.50424</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>12036.56977</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>10171.482</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>142.84675</v>
+        <v>164.3849</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>62.1991</v>
+        <v>29.89641</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>133.56171</v>
+        <v>97.30552</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>115.49593</v>
+        <v>94.80255</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>211.31737</v>
+        <v>172.1457</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>519.77786</v>
+        <v>429.83423</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>11.18277</v>
+        <v>10.61996</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>51.08376000000001</v>
+        <v>50.4188</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>495.1502</v>
+        <v>361.29507</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>281.95887</v>
+        <v>267.11587</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>45.58578</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>45.26289</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>198.867</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>5126.074820000001</v>
+        <v>10249.67198</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>7066.10374</v>
+        <v>5927.90184</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>7412.960389999999</v>
+        <v>6277.638109999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>8499.72702</v>
+        <v>9656.837519999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>10629.12199</v>
+        <v>11196.98042</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>10193.94492</v>
+        <v>9739.720599999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>16433.21465</v>
+        <v>16208.74027</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>11852.02255</v>
+        <v>10727.66648</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>13215.04186</v>
+        <v>9979.414000000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>12485.20202</v>
+        <v>10652.22196</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>15751.91846</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>11991.30688</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>9972.615</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>5237.57603</v>
+        <v>4408.61228</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>5495.74143</v>
+        <v>6281.43389</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>101323.70563</v>
+        <v>88478.64679</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>5854.96945</v>
+        <v>4994.02252</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>6830.964089999999</v>
+        <v>8310.35383</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>54266.99283</v>
+        <v>52705.16329</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>7290.26966</v>
+        <v>9188.675640000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>105268.34105</v>
+        <v>101833.67347</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>13997.42318</v>
+        <v>10406.07457</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>68397.05749000001</v>
+        <v>60283.90813</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>11976.15226</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>10820.19715</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>12880.878</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>22.9238</v>
+        <v>96.14413999999999</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>0.00183</v>
+        <v>303.79421</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>209.62993</v>
+        <v>133.69323</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>0.176</v>
+        <v>2372.85478</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>0</v>
+        <v>73.67247999999999</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>1.1</v>
@@ -2807,7 +2948,7 @@
         <v>38.52788</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>48.19289</v>
+        <v>0</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>2.1009</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>359.71769</v>
+        <v>392.43479</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>291.32942</v>
+        <v>239.38371</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>87.66391</v>
+        <v>84.00254999999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>125.66336</v>
+        <v>118.00025</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>206.21104</v>
+        <v>190.91183</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>198.94646</v>
+        <v>169.37256</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>201.12474</v>
+        <v>114.66821</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>248.40988</v>
+        <v>87.99162</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>281.84204</v>
+        <v>269.24235</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>431.9188</v>
+        <v>185.78098</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>247.28383</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>224.3806</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>109.9</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>4877.85834</v>
+        <v>4016.17749</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>5181.488210000001</v>
+        <v>5945.90604</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>101236.03989</v>
+        <v>88090.85003</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>5519.67616</v>
+        <v>4742.32904</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>6624.57705</v>
+        <v>5746.587219999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>54068.04637</v>
+        <v>52462.11825</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>7088.04492</v>
+        <v>9072.907429999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>104981.40329</v>
+        <v>101707.15397</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>13667.38825</v>
+        <v>10136.83222</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>67963.03778999999</v>
+        <v>60096.02625</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>11728.86843</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>10595.81655</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>12770.978</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>104320.32093</v>
+        <v>113266.40518</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>111254.88199</v>
+        <v>101284.79859</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>18624.39458</v>
+        <v>30709.21622</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>129602.07393</v>
+        <v>131392.89089</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>159011.29418</v>
+        <v>154270.96565</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>113333.76957</v>
+        <v>-20571.20767</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>206245.28344</v>
+        <v>201722.46879</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>92843.45774000001</v>
+        <v>97842.68059999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>221836.16497</v>
+        <v>224952.11824</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>151211.93317</v>
+        <v>140545.77707</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>244526.79201</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>233126.87202</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>301586.658</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>20871.71287</v>
+        <v>20530.81943</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>21344.24957</v>
+        <v>21031.62046</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>24097.44057</v>
+        <v>23606.59281</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>25381.74708</v>
+        <v>25573.25533</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>30820.1241</v>
+        <v>32760.03677</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>33645.19569</v>
+        <v>34599.34605</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>40366.62504</v>
+        <v>39985.09573</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>37000.09050999999</v>
+        <v>37791.04595</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>44516.04811</v>
+        <v>43782.35832</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>48284.21022000001</v>
+        <v>45457.30174</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>53977.59834</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>52746.62847</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>68449.515</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>83448.60806</v>
+        <v>92735.58575</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>89910.63242000001</v>
+        <v>80253.17813000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-5473.045989999999</v>
+        <v>7102.62341</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>104220.32685</v>
+        <v>105819.63556</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>128191.17008</v>
+        <v>121510.92888</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>79688.57388</v>
+        <v>-55170.55372</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>165878.6584</v>
+        <v>161737.37306</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>55843.36723</v>
+        <v>60051.63465</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>177320.11686</v>
+        <v>181169.75992</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>102927.72295</v>
+        <v>95088.47533</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>190549.19367</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>180380.24355</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>233137.143</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>408</v>
+        <v>307</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>444</v>
+        <v>307</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>424</v>
+        <v>319</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>454</v>
+        <v>342</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>463</v>
+        <v>352</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>481</v>
+        <v>361</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>546</v>
+        <v>410</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>564</v>
+        <v>410</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>634</v>
+        <v>434</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>337</v>
+        <v>256</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>291</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>